--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H2">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N2">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P2">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q2">
-        <v>75.15055793812712</v>
+        <v>33.32615205988201</v>
       </c>
       <c r="R2">
-        <v>676.3550214431442</v>
+        <v>299.9353685389381</v>
       </c>
       <c r="S2">
-        <v>0.009227611709889141</v>
+        <v>0.003871809379044219</v>
       </c>
       <c r="T2">
-        <v>0.009227611709889139</v>
+        <v>0.003871809379044219</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H3">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
         <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P3">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q3">
-        <v>392.1633652666471</v>
+        <v>381.6291701525374</v>
       </c>
       <c r="R3">
-        <v>3529.470287399824</v>
+        <v>3434.662531372836</v>
       </c>
       <c r="S3">
-        <v>0.048153085762895</v>
+        <v>0.04433741398222162</v>
       </c>
       <c r="T3">
-        <v>0.048153085762895</v>
+        <v>0.04433741398222162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H4">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N4">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P4">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q4">
-        <v>88.87053819976444</v>
+        <v>92.306847237016</v>
       </c>
       <c r="R4">
-        <v>799.83484379788</v>
+        <v>830.761625133144</v>
       </c>
       <c r="S4">
-        <v>0.01091226521074494</v>
+        <v>0.010724145897195</v>
       </c>
       <c r="T4">
-        <v>0.01091226521074494</v>
+        <v>0.010724145897195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H5">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N5">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P5">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q5">
-        <v>396.1282022817076</v>
+        <v>483.8315375595527</v>
       </c>
       <c r="R5">
-        <v>3565.153820535369</v>
+        <v>4354.483838035973</v>
       </c>
       <c r="S5">
-        <v>0.04863992148935888</v>
+        <v>0.05621121459310457</v>
       </c>
       <c r="T5">
-        <v>0.04863992148935887</v>
+        <v>0.05621121459310457</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N6">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P6">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q6">
-        <v>274.8370513284329</v>
+        <v>125.243068808792</v>
       </c>
       <c r="R6">
-        <v>2473.533461955897</v>
+        <v>1127.187619279128</v>
       </c>
       <c r="S6">
-        <v>0.03374678329384675</v>
+        <v>0.01455065342085816</v>
       </c>
       <c r="T6">
-        <v>0.03374678329384674</v>
+        <v>0.01455065342085817</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
         <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P7">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q7">
         <v>1434.201234243113</v>
@@ -883,10 +883,10 @@
         <v>12907.81110818802</v>
       </c>
       <c r="S7">
-        <v>0.1761031782935692</v>
+        <v>0.1666245109906919</v>
       </c>
       <c r="T7">
-        <v>0.1761031782935692</v>
+        <v>0.1666245109906919</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N8">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P8">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q8">
-        <v>325.0131115314355</v>
+        <v>346.8985197947626</v>
       </c>
       <c r="R8">
-        <v>2925.11800378292</v>
+        <v>3122.086678152864</v>
       </c>
       <c r="S8">
-        <v>0.03990781806708862</v>
+        <v>0.04030243095886162</v>
       </c>
       <c r="T8">
-        <v>0.03990781806708861</v>
+        <v>0.04030243095886163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N9">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P9">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q9">
-        <v>1448.701247870613</v>
+        <v>1818.28812524026</v>
       </c>
       <c r="R9">
-        <v>13038.31123083551</v>
+        <v>16364.59312716234</v>
       </c>
       <c r="S9">
-        <v>0.1778836107908612</v>
+        <v>0.2112474612868611</v>
       </c>
       <c r="T9">
-        <v>0.1778836107908612</v>
+        <v>0.2112474612868611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H10">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N10">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P10">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q10">
-        <v>98.99524750393789</v>
+        <v>51.85751846799701</v>
       </c>
       <c r="R10">
-        <v>890.957227535441</v>
+        <v>466.7176662119731</v>
       </c>
       <c r="S10">
-        <v>0.01215546138516768</v>
+        <v>0.006024770757139146</v>
       </c>
       <c r="T10">
-        <v>0.01215546138516768</v>
+        <v>0.006024770757139146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H11">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
         <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P11">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q11">
-        <v>516.5937615328428</v>
+        <v>593.8381876056785</v>
       </c>
       <c r="R11">
-        <v>4649.343853795585</v>
+        <v>5344.543688451106</v>
       </c>
       <c r="S11">
-        <v>0.06343168665628322</v>
+        <v>0.06899171138254799</v>
       </c>
       <c r="T11">
-        <v>0.06343168665628322</v>
+        <v>0.06899171138254799</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H12">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N12">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P12">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q12">
-        <v>117.0684711634105</v>
+        <v>143.6350655399693</v>
       </c>
       <c r="R12">
-        <v>1053.616240470695</v>
+        <v>1292.715589859724</v>
       </c>
       <c r="S12">
-        <v>0.01437464238463414</v>
+        <v>0.0166874229259354</v>
       </c>
       <c r="T12">
-        <v>0.01437464238463414</v>
+        <v>0.0166874229259354</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H13">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N13">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P13">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q13">
-        <v>521.8166106025974</v>
+        <v>752.8712840687532</v>
       </c>
       <c r="R13">
-        <v>4696.349495423377</v>
+        <v>6775.841556618779</v>
       </c>
       <c r="S13">
-        <v>0.06407299158544597</v>
+        <v>0.08746806692932026</v>
       </c>
       <c r="T13">
-        <v>0.06407299158544595</v>
+        <v>0.08746806692932026</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H14">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I14">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J14">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.248785666666667</v>
+        <v>3.303267</v>
       </c>
       <c r="N14">
-        <v>21.746357</v>
+        <v>9.909801000000002</v>
       </c>
       <c r="O14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="P14">
-        <v>0.07891374419744838</v>
+        <v>0.03362563178859915</v>
       </c>
       <c r="Q14">
-        <v>193.6982715510725</v>
+        <v>79.002002729419</v>
       </c>
       <c r="R14">
-        <v>1743.284443959652</v>
+        <v>711.0180245647711</v>
       </c>
       <c r="S14">
-        <v>0.02378388780854482</v>
+        <v>0.009178398231557625</v>
       </c>
       <c r="T14">
-        <v>0.02378388780854481</v>
+        <v>0.009178398231557625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H15">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I15">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J15">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.82684066666666</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
         <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4118010609547572</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="P15">
-        <v>0.4118010609547573</v>
+        <v>0.3850586149964086</v>
       </c>
       <c r="Q15">
-        <v>1010.789115901732</v>
+        <v>904.6789646714292</v>
       </c>
       <c r="R15">
-        <v>9097.10204311559</v>
+        <v>8142.110682042862</v>
       </c>
       <c r="S15">
-        <v>0.1241131102420098</v>
+        <v>0.1051049786409471</v>
       </c>
       <c r="T15">
-        <v>0.1241131102420098</v>
+        <v>0.1051049786409471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H16">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I16">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J16">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.572171666666666</v>
+        <v>9.149395999999999</v>
       </c>
       <c r="N16">
-        <v>25.716515</v>
+        <v>27.448188</v>
       </c>
       <c r="O16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="P16">
-        <v>0.09332075650003556</v>
+        <v>0.09313634682999644</v>
       </c>
       <c r="Q16">
-        <v>229.0611023178378</v>
+        <v>218.8199160905053</v>
       </c>
       <c r="R16">
-        <v>2061.54992086054</v>
+        <v>1969.379244814548</v>
       </c>
       <c r="S16">
-        <v>0.02812603083756787</v>
+        <v>0.02542234704800441</v>
       </c>
       <c r="T16">
-        <v>0.02812603083756786</v>
+        <v>0.02542234704800441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H17">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I17">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J17">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>38.20927633333334</v>
+        <v>47.95707433333333</v>
       </c>
       <c r="N17">
-        <v>114.627829</v>
+        <v>143.871223</v>
       </c>
       <c r="O17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="P17">
-        <v>0.4159644383477589</v>
+        <v>0.4881794063849957</v>
       </c>
       <c r="Q17">
-        <v>1021.008362409938</v>
+        <v>1146.956911862392</v>
       </c>
       <c r="R17">
-        <v>9189.075261689444</v>
+        <v>10322.61220676153</v>
       </c>
       <c r="S17">
-        <v>0.1253679144820928</v>
+        <v>0.1332526635757098</v>
       </c>
       <c r="T17">
-        <v>0.1253679144820928</v>
+        <v>0.1332526635757098</v>
       </c>
     </row>
   </sheetData>
